--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/58_Mersin_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/58_Mersin_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0C2E12-A3A8-4AA2-B647-76978A52D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18280CC1-383F-4639-AD19-B1A1E2019C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{ED84010B-18F1-45F8-9496-F1F5BAA15E8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{889D63C1-412D-4529-8EA5-77C37C51D25E}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{48E0E8F7-9F3F-464D-93D4-D2481C81A7F8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4468F85F-C174-4378-9DFB-41DD9D835A78}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{79621C7E-2CE8-4E0F-A376-4E3471B036C0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1097750E-5204-4B3E-8EBC-FD54D43C18DD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{872A6C9C-4CA7-4125-A793-2C8ADC842448}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{BAC9A7AC-91B0-4AE1-A71C-33D99BDC6332}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{3BF99DE9-737D-46E7-AF7B-88565DF1941A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{563162AD-69AF-47F8-B52D-194521E3BF0C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1D1A79F1-BC6F-4B5B-9543-E2E587DAF95A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8289A8EF-B740-465A-98FE-34B6E6275E46}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7B373BFC-0801-4B3F-A698-365D5ABC2EB8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{743D7372-9EB2-4376-8D5D-EA0B5A9B3394}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{7D6C490B-C3BB-4C51-B3F1-06B1E27D8E86}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{AA967780-82E7-4832-914C-5FC2EBACB972}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AB7356-AED4-4F03-A425-0BCE4194E25A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022EC702-F3D4-4027-8FB7-E75B8070B325}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2446,7 +2446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253154C8-7F94-4918-A8B7-1B24CE88962B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430DE1A7-77CF-49B1-B61F-5E0DF7C5975E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3733,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4FF162-CDEB-4CCE-A68A-4B4053500166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F7642E-419A-4491-80B1-8E2153FE6EE7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5018,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833A3B0E-A33D-4FCC-853B-E1E56C48B40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD3688-86FD-4703-BADE-6834789A4DF2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6303,7 +6303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5D83D6-38C2-46AD-8510-99ABEB0482C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1C1919-FC3A-4B70-88F2-5B66FED2CFF3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7572,7 +7572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81050D4E-524E-43F6-9790-5220EA6DAD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F39789-7B67-4DA9-8838-E69D8E7868B3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
